--- a/金融资料/船长/中信证券股份有限公司上海淮海中路证券营业部/经纪人客户确认单-打印填写.xlsx
+++ b/金融资料/船长/中信证券股份有限公司上海淮海中路证券营业部/经纪人客户确认单-打印填写.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13050" windowHeight="9660"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,11 +220,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,9 +275,123 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,106 +404,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,34 +418,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,37 +438,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,145 +582,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,6 +1014,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,6 +1048,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1061,6 +1081,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1080,50 +1111,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1133,148 +1120,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2564,7 +2551,8 @@
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="B28:B31"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.314583333333333" right="0.118055555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
